--- a/prokka_outputs/Manually checked annotations/Nucleotide alignment Annotations.xlsx
+++ b/prokka_outputs/Manually checked annotations/Nucleotide alignment Annotations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Desktop/PhD/Project Work/Phylogenetic Study/Prokka and Orthofinder scripts and outputs/prokka_outputs/Manually checked annotations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/prokka_outputs/Manually checked annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="245" documentId="8_{F4CA95FD-ADD5-4464-8069-EE9EF4EC7303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFA20B7C-3642-4C7E-9852-23BF746576ED}"/>
+  <xr:revisionPtr revIDLastSave="303" documentId="8_{F4CA95FD-ADD5-4464-8069-EE9EF4EC7303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{323B24B9-493D-43E3-B619-4288CC385390}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{2726C256-0AC9-4A8B-B368-59495ADA43C2}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="198">
   <si>
     <t>Sequence Name</t>
   </si>
@@ -593,6 +593,30 @@
   </si>
   <si>
     <t>Present in reference genome but is longer. After a BLASTp search I found that the majority of sequences for this protien are equal to or closer in size to the longer version. As such, I amended the size of the prokka annotation to increase it to match the size of the reference genome.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matches with 24 other sequences with ~5 sharing &gt;80% identify. </t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>This gene was included in the reference genome but was larger. BLASTp search found the majority of other  putative thymidine kinase genes match the size of the annotation included in the referenc genome. As such, I extended the gene.</t>
+  </si>
+  <si>
+    <t>Similar gene in reference genome (36 base pairs longer), but didn not stop with a stop codon like the annotation from Prokka so I kept the Prokka version.</t>
+  </si>
+  <si>
+    <t>Putative DNA-directed RNA polymerase II CDS or RPO2</t>
+  </si>
+  <si>
+    <t>Putative thymidine kinase. Matched with 'Deoxyribonucleoside kinase' from other megalocytivirus genotypes in GenBank.</t>
+  </si>
+  <si>
+    <t>Very similar to a gene in the annotated reference genome but a bit smaller. The version in the referenc egenome did not have a stop codon at the end so I have more trust in the Prokka annotation.</t>
+  </si>
+  <si>
+    <t>Hypothetical protein</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1127,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1131,13 +1155,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1211,6 +1228,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1533,8 +1554,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2037,44 +2058,44 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="11">
+    <row r="15" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="7">
         <v>5174</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="7">
         <v>6631</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="7">
         <v>1458</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M15" s="12" t="s">
+      <c r="I15" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2158,13 +2179,13 @@
       <c r="H18" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="I18" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="K18" s="11" t="s">
+      <c r="I18" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>146</v>
       </c>
       <c r="L18" s="7" t="s">
@@ -2197,38 +2218,38 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="16" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="14">
+    <row r="20" spans="1:13" s="13" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="11">
         <v>8448</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="11">
         <v>8690</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="11">
         <v>243</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="M20" s="15" t="s">
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" s="12" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2257,13 +2278,13 @@
       <c r="H21" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="I21" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="K21" s="11" t="s">
+      <c r="I21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
@@ -2344,13 +2365,13 @@
       <c r="H24" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="I24" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="K24" s="11" t="s">
+      <c r="I24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>146</v>
       </c>
       <c r="L24" s="7" t="s">
@@ -2408,13 +2429,13 @@
       <c r="H26" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="I26" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="K26" s="11" t="s">
+      <c r="I26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>146</v>
       </c>
       <c r="L26" s="7" t="s">
@@ -2472,13 +2493,13 @@
       <c r="H28" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="I28" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="K28" s="11" t="s">
+      <c r="I28" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>146</v>
       </c>
       <c r="L28" s="7" t="s">
@@ -2513,13 +2534,13 @@
       <c r="H29" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="I29" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="K29" s="11" t="s">
+      <c r="I29" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>146</v>
       </c>
       <c r="L29" s="7" t="s">
@@ -2577,13 +2598,13 @@
       <c r="H31" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="11">
         <v>11309</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J31" s="14">
         <v>12268</v>
       </c>
-      <c r="K31" s="14">
+      <c r="K31" s="11">
         <v>960</v>
       </c>
       <c r="L31" s="7" t="s">
@@ -2641,13 +2662,13 @@
       <c r="H33" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="I33" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="K33" s="11" t="s">
+      <c r="I33" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>146</v>
       </c>
       <c r="L33" s="7" t="s">
@@ -2808,42 +2829,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="20" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="B39" s="18" t="s">
+    <row r="39" spans="1:13" s="17" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C39" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="18">
+      <c r="C39" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="15">
         <v>14322</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="15">
         <v>14513</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="15">
         <v>192</v>
       </c>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19" t="s">
+      <c r="G39" s="16"/>
+      <c r="H39" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="I39" s="18" t="s">
+      <c r="I39" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="J39" s="18" t="s">
+      <c r="J39" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="K39" s="18" t="s">
+      <c r="K39" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="L39" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M39" s="19" t="s">
+      <c r="L39" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M39" s="16" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3200,7 +3221,7 @@
       <c r="H51" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="I51" s="14">
+      <c r="I51" s="11">
         <v>22300</v>
       </c>
       <c r="J51" s="7">
@@ -3575,10 +3596,10 @@
       <c r="I63" s="7">
         <v>28593</v>
       </c>
-      <c r="J63" s="14">
+      <c r="J63" s="11">
         <v>28814</v>
       </c>
-      <c r="K63" s="14">
+      <c r="K63" s="11">
         <v>222</v>
       </c>
       <c r="L63" s="7" t="s">
@@ -3588,7 +3609,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>135</v>
       </c>
@@ -3607,11 +3628,29 @@
       <c r="F64" s="7">
         <v>603</v>
       </c>
+      <c r="G64" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="L64" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M64" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>6</v>
       </c>
@@ -3634,7 +3673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>6</v>
       </c>
@@ -3657,7 +3696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>6</v>
       </c>
@@ -3680,7 +3719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>135</v>
       </c>
@@ -3699,11 +3738,29 @@
       <c r="F68" s="7">
         <v>567</v>
       </c>
+      <c r="G68" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I68" s="11">
+        <v>29447</v>
+      </c>
+      <c r="J68" s="7">
+        <v>30061</v>
+      </c>
+      <c r="K68" s="7">
+        <v>615</v>
+      </c>
       <c r="L68" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M68" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>6</v>
       </c>
@@ -3726,7 +3783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>135</v>
       </c>
@@ -3745,11 +3802,29 @@
       <c r="F70" s="7">
         <v>903</v>
       </c>
+      <c r="G70" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="L70" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M70" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>6</v>
       </c>
@@ -3772,7 +3847,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>135</v>
       </c>
@@ -3791,11 +3866,29 @@
       <c r="F72" s="7">
         <v>3135</v>
       </c>
+      <c r="G72" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="L72" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M72" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>6</v>
       </c>
@@ -3818,7 +3911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>135</v>
       </c>
@@ -3837,11 +3930,29 @@
       <c r="F74" s="7">
         <v>1134</v>
       </c>
+      <c r="G74" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="L74" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>6</v>
       </c>
@@ -3864,7 +3975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>135</v>
       </c>
@@ -3883,11 +3994,29 @@
       <c r="F76" s="7">
         <v>1026</v>
       </c>
+      <c r="G76" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="L76" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M76" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>6</v>
       </c>
@@ -3910,7 +4039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>135</v>
       </c>
@@ -3929,11 +4058,29 @@
       <c r="F78" s="7">
         <v>1353</v>
       </c>
+      <c r="G78" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="L78" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M78" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>6</v>
       </c>
@@ -3956,7 +4103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>135</v>
       </c>
@@ -3975,8 +4122,26 @@
       <c r="F80" s="7">
         <v>1437</v>
       </c>
+      <c r="G80" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="L80" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -4020,6 +4185,9 @@
       </c>
       <c r="F82" s="7">
         <v>873</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="L82" s="7" t="s">
         <v>11</v>

--- a/prokka_outputs/Manually checked annotations/Nucleotide alignment Annotations.xlsx
+++ b/prokka_outputs/Manually checked annotations/Nucleotide alignment Annotations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/prokka_outputs/Manually checked annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="303" documentId="8_{F4CA95FD-ADD5-4464-8069-EE9EF4EC7303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{323B24B9-493D-43E3-B619-4288CC385390}"/>
+  <xr:revisionPtr revIDLastSave="320" documentId="8_{F4CA95FD-ADD5-4464-8069-EE9EF4EC7303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{086324C8-D78B-4231-832D-88C830AC7B22}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{2726C256-0AC9-4A8B-B368-59495ADA43C2}"/>
+    <workbookView xWindow="1332" yWindow="0" windowWidth="21432" windowHeight="13800" xr2:uid="{2726C256-0AC9-4A8B-B368-59495ADA43C2}"/>
   </bookViews>
   <sheets>
     <sheet name="AF371960" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="198">
   <si>
     <t>Sequence Name</t>
   </si>
@@ -571,9 +571,6 @@
     <t>Putative ribonucleotide reductase small subunit CDS</t>
   </si>
   <si>
-    <t xml:space="preserve">Longer version of gene in reference genome. Having done a BALSTp search I found the majority of megalocytivirus Putative ribonucleotide reductase small subunits were 312 amino acids long (as opposed to 323 which was the Prokka annotated protein). As such i truncated the gene to match the reference gene annotation . </t>
-  </si>
-  <si>
     <t>Hypothetical Protein, maybe collagen-like protein</t>
   </si>
   <si>
@@ -617,6 +614,9 @@
   </si>
   <si>
     <t>Hypothetical protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Prokka annotatiuon had a longer version of the gene present in reference genome. Having done a BALSTp search I found the majority of megalocytivirus Putative ribonucleotide reductase small subunits were 312 amino acids long (as opposed to 323 which was the Prokka annotated protein). As such i truncated the gene to match the reference gene annotation . </t>
   </si>
 </sst>
 </file>
@@ -1554,8 +1554,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView tabSelected="1" topLeftCell="B76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3196,7 +3196,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>135</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>969</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>181</v>
@@ -3227,14 +3227,14 @@
       <c r="J51" s="7">
         <v>23238</v>
       </c>
-      <c r="K51" s="7">
-        <v>969</v>
+      <c r="K51" s="11">
+        <v>939</v>
       </c>
       <c r="L51" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
@@ -3341,7 +3341,7 @@
         <v>151</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
@@ -3350,7 +3350,7 @@
         <v>11</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
@@ -3399,7 +3399,7 @@
         <v>148</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>146</v>
@@ -3463,7 +3463,7 @@
         <v>148</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>146</v>
@@ -3527,7 +3527,7 @@
         <v>148</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>146</v>
@@ -3591,7 +3591,7 @@
         <v>151</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I63" s="7">
         <v>28593</v>
@@ -3606,7 +3606,7 @@
         <v>9</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
@@ -3632,7 +3632,7 @@
         <v>151</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>146</v>
@@ -3647,7 +3647,7 @@
         <v>9</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
@@ -3739,10 +3739,10 @@
         <v>567</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I68" s="11">
         <v>29447</v>
@@ -3750,14 +3750,14 @@
       <c r="J68" s="7">
         <v>30061</v>
       </c>
-      <c r="K68" s="7">
+      <c r="K68" s="11">
         <v>615</v>
       </c>
       <c r="L68" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
@@ -3803,10 +3803,10 @@
         <v>903</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I70" s="7" t="s">
         <v>146</v>
@@ -3821,7 +3821,7 @@
         <v>9</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
@@ -3870,7 +3870,7 @@
         <v>148</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I72" s="7" t="s">
         <v>146</v>
@@ -3931,10 +3931,10 @@
         <v>1134</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I74" s="7" t="s">
         <v>146</v>
@@ -3949,7 +3949,7 @@
         <v>9</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
@@ -3995,10 +3995,10 @@
         <v>1026</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I76" s="7" t="s">
         <v>146</v>
@@ -4013,7 +4013,7 @@
         <v>11</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
@@ -4062,7 +4062,7 @@
         <v>148</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I78" s="7" t="s">
         <v>146</v>
@@ -4126,7 +4126,7 @@
         <v>148</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I80" s="7" t="s">
         <v>146</v>
@@ -4144,7 +4144,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>6</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>135</v>
       </c>
@@ -4189,11 +4189,26 @@
       <c r="G82" s="2" t="s">
         <v>148</v>
       </c>
+      <c r="H82" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="L82" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>6</v>
       </c>
@@ -4216,7 +4231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>135</v>
       </c>
@@ -4235,11 +4250,29 @@
       <c r="F84" s="7">
         <v>1140</v>
       </c>
+      <c r="G84" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="L84" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>6</v>
       </c>
@@ -4262,7 +4295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>135</v>
       </c>
@@ -4281,11 +4314,26 @@
       <c r="F86" s="7">
         <v>1293</v>
       </c>
+      <c r="G86" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I86" s="7">
+        <v>41445</v>
+      </c>
+      <c r="J86" s="11">
+        <v>42788</v>
+      </c>
+      <c r="K86" s="11">
+        <v>1344</v>
+      </c>
       <c r="L86" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>6</v>
       </c>
@@ -4308,7 +4356,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>135</v>
       </c>
@@ -4331,7 +4379,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>6</v>
       </c>
@@ -4354,7 +4402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>135</v>
       </c>
@@ -4377,7 +4425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>6</v>
       </c>
@@ -4400,7 +4448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>135</v>
       </c>
@@ -4423,7 +4471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>6</v>
       </c>
@@ -4446,7 +4494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>135</v>
       </c>
@@ -4469,7 +4517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>6</v>
       </c>
@@ -4492,7 +4540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>135</v>
       </c>

--- a/prokka_outputs/Manually checked annotations/Nucleotide alignment Annotations.xlsx
+++ b/prokka_outputs/Manually checked annotations/Nucleotide alignment Annotations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/prokka_outputs/Manually checked annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="320" documentId="8_{F4CA95FD-ADD5-4464-8069-EE9EF4EC7303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{086324C8-D78B-4231-832D-88C830AC7B22}"/>
+  <xr:revisionPtr revIDLastSave="523" documentId="8_{F4CA95FD-ADD5-4464-8069-EE9EF4EC7303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D54E91CD-AFE5-4CB2-9D88-CDE0B9A80E4E}"/>
   <bookViews>
-    <workbookView xWindow="1332" yWindow="0" windowWidth="21432" windowHeight="13800" xr2:uid="{2726C256-0AC9-4A8B-B368-59495ADA43C2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{2726C256-0AC9-4A8B-B368-59495ADA43C2}"/>
   </bookViews>
   <sheets>
     <sheet name="AF371960" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="229">
   <si>
     <t>Sequence Name</t>
   </si>
@@ -617,13 +617,118 @@
   </si>
   <si>
     <t xml:space="preserve">The Prokka annotatiuon had a longer version of the gene present in reference genome. Having done a BALSTp search I found the majority of megalocytivirus Putative ribonucleotide reductase small subunits were 312 amino acids long (as opposed to 323 which was the Prokka annotated protein). As such i truncated the gene to match the reference gene annotation . </t>
+  </si>
+  <si>
+    <t>BLASTp search found the gene in the reference genome was equal to or closer majority of annotations.</t>
+  </si>
+  <si>
+    <t>Erv1/Alr family protein OR thiol oxidoreductase.</t>
+  </si>
+  <si>
+    <t>cytosine DNA methyltransferase </t>
+  </si>
+  <si>
+    <t>Hypothetical</t>
+  </si>
+  <si>
+    <t>Vascular endothelial growth factor </t>
+  </si>
+  <si>
+    <t>P142 </t>
+  </si>
+  <si>
+    <t>Not in Prokka annotatino but BLASTp returned one 99% identity match with only 43% coverage of the supposed gene. Decdied not to add to Prokka annotation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similar gene in reference genome but the reference genome version was longer. BLASTp search found one match 99% identify and .90% coverage for Prokka version. The reference genome version had ~10 .90% identify matches with 99% coverage of the gene. Decedied to replace Prokka annotation with reference genome annotation.  </t>
+  </si>
+  <si>
+    <t>2-cysteine adaptor domain-containing protein</t>
+  </si>
+  <si>
+    <t>2-cysteine adaptor domain-containing protein </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exact match with reference sequence but also exact match / repeat with gene at minimun position 48633 and max position 49559. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Is this an issue or normal?</t>
+    </r>
+  </si>
+  <si>
+    <t>Covered the same position on the genome as two separate genes in the reference sequence. A BLASTp search of all three genes returned no matches for the two separate genes in the ref genome and ~12 matches with high % identify and coverage for the Prokka annotation. I decided to keep the Prokka annotation.</t>
+  </si>
+  <si>
+    <t>Replication factor </t>
+  </si>
+  <si>
+    <t>DNA-binding protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same gene, but difference sizes in ref genome and Prokka annotation. All matches for the gene in BLASTp (~20 matches) match the size of the ref genome annotation (1208 amino acids long). Decided to update Prokka annotation with the ref genome annotation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 Macthes with &gt;99% identity and &gt;99% coverage in GenBank. Decided to keep.  </t>
+  </si>
+  <si>
+    <t>Putative NTPase CDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exact match with reference genome. </t>
+  </si>
+  <si>
+    <t>Putative RNA guanylytransferase CDS</t>
+  </si>
+  <si>
+    <t>RING-finger-containing E3 ubiquitin ligase </t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 BLASTp matches with ~10 matches with 90% identity and 100% query cover. </t>
+  </si>
+  <si>
+    <t>Removed</t>
+  </si>
+  <si>
+    <t>~20 matches in Genbank but all are the size of the similar annotation in the reference genome which is larger than this one (153 amino acids in ref genome as oopsed to 63 in this Prokka annotation. Decided to remove.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No matched in Genbank so removed. </t>
+  </si>
+  <si>
+    <t>RING finger-containing E3 ubiquitin ligase </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 matches in Genbank  but smaller than reference genome version which also returned ~100 matches and was the same size as the matches. The refernece genome annotation was 347 amino acids long as opposed to Prokka annotation which was 231 amino acids long. </t>
+  </si>
+  <si>
+    <t>Not present in reference genome but ~100 matched in GenBank and shared 80% identity with ~70% query cover with an antigen found in a few different susceptible finfish identified as 'CD83 antigen'</t>
+  </si>
+  <si>
+    <t>Returned ~100 matches with high level of identity on GenBank, and was the same size as the matches  (347 amino acids long as opposed to the version of this gene from the Prokka annotation which was 231 amino acids long). This family of proteins is associated with disease. It is adopted to regulate antiviral host response.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 matches on GenBank. </t>
+  </si>
+  <si>
+    <t>Hypothetical protein OR CD276 antigen-like OR V-set domain-containing T-cell activation inhibitor 1</t>
+  </si>
+  <si>
+    <t>Many matched in GenBank. Shares identity with a number of genes found in finfish, some identified as  'CD276 antigen-like' or 'V-set domain-containing T-cell activation inhibitor 1'. Assume it has a role in regulating host's immune response to infection.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -775,6 +880,13 @@
     <font>
       <sz val="11"/>
       <color theme="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1127,7 +1239,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1172,6 +1284,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1554,8 +1672,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A130" sqref="A130"/>
+      <selection pane="topRight" activeCell="G143" sqref="G143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4295,7 +4415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>135</v>
       </c>
@@ -4332,6 +4452,9 @@
       <c r="L86" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="M86" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
@@ -4356,7 +4479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>135</v>
       </c>
@@ -4375,8 +4498,26 @@
       <c r="F88" s="7">
         <v>594</v>
       </c>
+      <c r="G88" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="L88" s="7" t="s">
         <v>11</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
@@ -4402,7 +4543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>135</v>
       </c>
@@ -4421,8 +4562,26 @@
       <c r="F90" s="7">
         <v>363</v>
       </c>
+      <c r="G90" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="L90" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
@@ -4448,7 +4607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>135</v>
       </c>
@@ -4467,8 +4626,26 @@
       <c r="F92" s="7">
         <v>801</v>
       </c>
+      <c r="G92" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="L92" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
@@ -4494,7 +4671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>135</v>
       </c>
@@ -4513,8 +4690,26 @@
       <c r="F94" s="7">
         <v>915</v>
       </c>
+      <c r="G94" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J94" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K94" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="L94" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
@@ -4540,7 +4735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>135</v>
       </c>
@@ -4559,11 +4754,29 @@
       <c r="F96" s="7">
         <v>684</v>
       </c>
+      <c r="G96" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K96" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="L96" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M96" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>6</v>
       </c>
@@ -4586,7 +4799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>135</v>
       </c>
@@ -4605,11 +4818,29 @@
       <c r="F98" s="7">
         <v>264</v>
       </c>
+      <c r="G98" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="L98" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M98" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>6</v>
       </c>
@@ -4632,7 +4863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>135</v>
       </c>
@@ -4651,11 +4882,29 @@
       <c r="F100" s="7">
         <v>345</v>
       </c>
+      <c r="G100" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J100" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K100" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="L100" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M100" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>6</v>
       </c>
@@ -4678,7 +4927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>135</v>
       </c>
@@ -4697,11 +4946,29 @@
       <c r="F102" s="7">
         <v>171</v>
       </c>
+      <c r="G102" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J102" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K102" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="L102" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M102" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>6</v>
       </c>
@@ -4724,7 +4991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>135</v>
       </c>
@@ -4743,11 +5010,29 @@
       <c r="F104" s="7">
         <v>429</v>
       </c>
+      <c r="G104" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J104" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K104" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="L104" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M104" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>6</v>
       </c>
@@ -4766,11 +5051,17 @@
       <c r="F105" s="7">
         <v>132</v>
       </c>
+      <c r="G105" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="L105" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M105" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>6</v>
       </c>
@@ -4793,7 +5084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>135</v>
       </c>
@@ -4812,11 +5103,29 @@
       <c r="F107" s="7">
         <v>453</v>
       </c>
+      <c r="G107" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J107" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K107" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="L107" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M107" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>6</v>
       </c>
@@ -4839,7 +5148,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" ht="216" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>135</v>
       </c>
@@ -4858,11 +5167,29 @@
       <c r="F109" s="7">
         <v>192</v>
       </c>
+      <c r="G109" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I109" s="11">
+        <v>48405</v>
+      </c>
+      <c r="J109" s="11">
+        <v>48620</v>
+      </c>
+      <c r="K109" s="11">
+        <v>216</v>
+      </c>
       <c r="L109" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M109" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
         <v>6</v>
       </c>
@@ -4885,7 +5212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
         <v>135</v>
       </c>
@@ -4904,11 +5231,29 @@
       <c r="F111" s="7">
         <v>927</v>
       </c>
+      <c r="G111" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J111" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K111" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="L111" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M111" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
         <v>6</v>
       </c>
@@ -4931,7 +5276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
         <v>135</v>
       </c>
@@ -4950,11 +5295,29 @@
       <c r="F113" s="7">
         <v>927</v>
       </c>
+      <c r="G113" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I113" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J113" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K113" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="L113" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M113" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
         <v>6</v>
       </c>
@@ -4977,7 +5340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
         <v>135</v>
       </c>
@@ -4996,11 +5359,29 @@
       <c r="F115" s="7">
         <v>648</v>
       </c>
+      <c r="G115" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J115" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K115" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="L115" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M115" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
         <v>6</v>
       </c>
@@ -5023,7 +5404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
         <v>135</v>
       </c>
@@ -5042,11 +5423,29 @@
       <c r="F117" s="7">
         <v>261</v>
       </c>
+      <c r="G117" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J117" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K117" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="L117" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M117" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
         <v>6</v>
       </c>
@@ -5069,7 +5468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
         <v>135</v>
       </c>
@@ -5088,11 +5487,29 @@
       <c r="F119" s="7">
         <v>300</v>
       </c>
+      <c r="G119" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J119" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K119" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="L119" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M119" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
         <v>135</v>
       </c>
@@ -5111,11 +5528,29 @@
       <c r="F120" s="7">
         <v>666</v>
       </c>
+      <c r="G120" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J120" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K120" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="L120" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M120" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
         <v>6</v>
       </c>
@@ -5138,7 +5573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
         <v>6</v>
       </c>
@@ -5161,7 +5596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
         <v>6</v>
       </c>
@@ -5184,7 +5619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
         <v>135</v>
       </c>
@@ -5203,11 +5638,29 @@
       <c r="F124" s="7">
         <v>804</v>
       </c>
+      <c r="G124" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="I124" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J124" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K124" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="L124" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M124" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
         <v>6</v>
       </c>
@@ -5230,7 +5683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
         <v>135</v>
       </c>
@@ -5249,11 +5702,29 @@
       <c r="F126" s="7">
         <v>3324</v>
       </c>
+      <c r="G126" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I126" s="7">
+        <v>53159</v>
+      </c>
+      <c r="J126" s="11">
+        <v>56785</v>
+      </c>
+      <c r="K126" s="11">
+        <v>3627</v>
+      </c>
       <c r="L126" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M126" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
         <v>135</v>
       </c>
@@ -5272,11 +5743,29 @@
       <c r="F127" s="7">
         <v>369</v>
       </c>
+      <c r="G127" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J127" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K127" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="L127" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M127" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
         <v>6</v>
       </c>
@@ -5299,7 +5788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
         <v>135</v>
       </c>
@@ -5318,11 +5807,29 @@
       <c r="F129" s="7">
         <v>2649</v>
       </c>
+      <c r="G129" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I129" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J129" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K129" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="L129" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M129" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
         <v>6</v>
       </c>
@@ -5345,7 +5852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
         <v>135</v>
       </c>
@@ -5364,11 +5871,29 @@
       <c r="F131" s="7">
         <v>1476</v>
       </c>
+      <c r="G131" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I131" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J131" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K131" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="L131" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M131" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
         <v>6</v>
       </c>
@@ -5387,11 +5912,29 @@
       <c r="F132" s="7">
         <v>462</v>
       </c>
-      <c r="L132" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G132" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="H132" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="I132" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="J132" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="K132" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="L132" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M132" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
         <v>135</v>
       </c>
@@ -5410,11 +5953,29 @@
       <c r="F133" s="7">
         <v>189</v>
       </c>
-      <c r="L133" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G133" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="H133" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="I133" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="J133" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="K133" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="L133" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M133" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
         <v>135</v>
       </c>
@@ -5433,11 +5994,29 @@
       <c r="F134" s="7">
         <v>294</v>
       </c>
-      <c r="L134" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G134" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="H134" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="I134" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="J134" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="K134" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="L134" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M134" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>6</v>
       </c>
@@ -5456,11 +6035,29 @@
       <c r="F135" s="7">
         <v>1044</v>
       </c>
-      <c r="L135" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G135" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="H135" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="I135" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J135" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="K135" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="L135" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M135" s="18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
         <v>135</v>
       </c>
@@ -5479,11 +6076,29 @@
       <c r="F136" s="7">
         <v>693</v>
       </c>
-      <c r="L136" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G136" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="H136" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="I136" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="J136" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="K136" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="L136" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M136" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
         <v>6</v>
       </c>
@@ -5506,7 +6121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
         <v>135</v>
       </c>
@@ -5525,11 +6140,29 @@
       <c r="F138" s="7">
         <v>585</v>
       </c>
+      <c r="G138" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I138" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J138" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K138" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="L138" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M138" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
         <v>6</v>
       </c>
@@ -5552,7 +6185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
         <v>135</v>
       </c>
@@ -5571,11 +6204,29 @@
       <c r="F140" s="7">
         <v>1434</v>
       </c>
+      <c r="G140" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I140" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J140" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K140" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="L140" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M140" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
         <v>6</v>
       </c>
@@ -5598,7 +6249,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
         <v>135</v>
       </c>
@@ -5617,11 +6268,29 @@
       <c r="F142" s="7">
         <v>666</v>
       </c>
+      <c r="G142" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I142" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J142" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K142" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="L142" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M142" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
         <v>135</v>
       </c>
@@ -5644,7 +6313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
         <v>6</v>
       </c>
